--- a/budget/UNIT Elementos.xlsx
+++ b/budget/UNIT Elementos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\checo\Documents\baja_SAE_Instrumentation\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FA093E-2637-4E28-B210-4F277C6276E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7283311-AFF8-4005-9897-F3053085249C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11985" yWindow="0" windowWidth="16920" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="12300" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -851,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,7 +929,7 @@
       <c r="F6" s="23"/>
       <c r="G6" s="4">
         <f>SUM(F9:F56)</f>
-        <v>6454</v>
+        <v>6592</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -1011,7 +1011,7 @@
         <v>56</v>
       </c>
       <c r="C11" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="13">
         <v>138</v>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="F11" s="21">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>276</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>

--- a/budget/UNIT Elementos.xlsx
+++ b/budget/UNIT Elementos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\checo\Documents\baja_SAE_Instrumentation\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7283311-AFF8-4005-9897-F3053085249C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE2EB95-A6EB-4AF3-8D21-6391CE05AB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="12300" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
   <si>
     <t>INSTRUMENTACIÓN</t>
   </si>
@@ -331,6 +331,24 @@
   </si>
   <si>
     <t>https://uelectronics.com/producto/modulo-ads1115-adc/</t>
+  </si>
+  <si>
+    <t>Imán de Neodimio Radial Perforado 9x3mm / 15x4mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imán de Neodimio Radial Perforado 9x3mm </t>
+  </si>
+  <si>
+    <t>https://uelectronics.com/producto/iman-de-neodimio-radial-perforado-9x3mm-15x4mm/</t>
+  </si>
+  <si>
+    <t>Imanes de Neodimio 9x3mm</t>
+  </si>
+  <si>
+    <t>https://uelectronics.com/producto/imanes-de-neodimio-diferentes-tamanos/</t>
+  </si>
+  <si>
+    <t>Banco de Terminales 3A 12 Vías</t>
   </si>
 </sst>
 </file>
@@ -849,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,8 +946,8 @@
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
       <c r="G6" s="4">
-        <f>SUM(F9:F56)</f>
-        <v>6592</v>
+        <f>SUM(F9:F60)</f>
+        <v>6842</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -999,7 +1017,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="21">
-        <f t="shared" ref="F10:F55" si="0">C10*D10</f>
+        <f t="shared" ref="F10:F59" si="0">C10*D10</f>
         <v>607</v>
       </c>
       <c r="G10" s="1"/>
@@ -1950,34 +1968,116 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="20" t="s">
-        <v>54</v>
+      <c r="B56" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="C56" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D56" s="13">
-        <v>338</v>
+        <v>7</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="F56" s="21">
-        <f>C56*D56</f>
-        <v>338</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="1"/>
+      <c r="B57" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="12">
+        <v>4</v>
+      </c>
+      <c r="D57" s="13">
+        <v>14</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F57" s="21">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" s="12">
+        <v>20</v>
+      </c>
+      <c r="D58" s="13">
+        <v>7</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F58" s="21">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="12">
+        <v>2</v>
+      </c>
+      <c r="D59" s="13">
+        <v>13</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="21">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="12">
+        <v>1</v>
+      </c>
+      <c r="D60" s="13">
+        <v>338</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F60" s="21">
+        <f>C60*D60</f>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2012,7 +2112,7 @@
     <hyperlink ref="E47" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
     <hyperlink ref="E15" r:id="rId26" xr:uid="{A1CD70AB-2673-4AF4-93C8-0A1E39EFDBA6}"/>
     <hyperlink ref="E29" r:id="rId27" xr:uid="{2CEB085D-6291-40F1-B618-DCA5F7051293}"/>
-    <hyperlink ref="E56" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E60" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>

--- a/budget/UNIT Elementos.xlsx
+++ b/budget/UNIT Elementos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\checo\Documents\baja_SAE_Instrumentation\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE2EB95-A6EB-4AF3-8D21-6391CE05AB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B36A29-A799-4995-A3C6-00CA8BB93B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="12300" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="13725" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
   <si>
     <t>INSTRUMENTACIÓN</t>
   </si>
@@ -348,7 +348,7 @@
     <t>https://uelectronics.com/producto/imanes-de-neodimio-diferentes-tamanos/</t>
   </si>
   <si>
-    <t>Banco de Terminales 3A 12 Vías</t>
+    <t>https://uelectronics.com/producto/banco-de-terminales-3-10-20a-12-vias/</t>
   </si>
 </sst>
 </file>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2042,7 +2042,9 @@
       <c r="D59" s="13">
         <v>13</v>
       </c>
-      <c r="E59" s="7"/>
+      <c r="E59" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="F59" s="21">
         <f t="shared" si="0"/>
         <v>26</v>
